--- a/var/reports/camel_awards/output_smoke.xlsx
+++ b/var/reports/camel_awards/output_smoke.xlsx
@@ -10,13 +10,14 @@
     <sheet name="النتائج الكاملة" sheetId="1" r:id="rId1"/>
     <sheet name="ملخص Pivot" sheetId="2" r:id="rId2"/>
     <sheet name="الإحصائيات" sheetId="3" r:id="rId3"/>
+    <sheet name="Audit Log" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>OwnerName</t>
   </si>
@@ -109,12 +110,60 @@
   </si>
   <si>
     <t>use_record_linkage</t>
+  </si>
+  <si>
+    <t>المعلومة</t>
+  </si>
+  <si>
+    <t>RunID</t>
+  </si>
+  <si>
+    <t>تاريخ التشغيل</t>
+  </si>
+  <si>
+    <t>إجمالي الجوائز</t>
+  </si>
+  <si>
+    <t>مطابقات Exact</t>
+  </si>
+  <si>
+    <t>مطابقات Fuzzy</t>
+  </si>
+  <si>
+    <t>مطابقات RL</t>
+  </si>
+  <si>
+    <t>غير مطابق</t>
+  </si>
+  <si>
+    <t>وقت التنفيذ (ث)</t>
+  </si>
+  <si>
+    <t>المستخدم</t>
+  </si>
+  <si>
+    <t>الحالة</t>
+  </si>
+  <si>
+    <t>afba5dc3-74e7-4406-9a08-e33a8aef91ea</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -194,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -203,6 +252,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +845,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.0008921623229980469</v>
+        <v>0.001604318618774414</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -812,6 +862,107 @@
       </c>
       <c r="B10" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45967.70050912027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
